--- a/fileTemplates/Questions-template.xlsx
+++ b/fileTemplates/Questions-template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">question_no</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -338,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -361,13 +361,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,19 +370,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -423,8 +409,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -447,12 +433,19 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="55.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,522 +475,522 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>923289579</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1557053946</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1499553323</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1540177488</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1229422529</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2053106490</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1871751616</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>976397077</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1518096388</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>65973273</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1484841521</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>495963771</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1629107234</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1959060925</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>705579506</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1021068888</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>152519529</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1360832799</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>43868109</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1822600104</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/fileTemplates/Questions-template.xlsx
+++ b/fileTemplates/Questions-template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
-    <t xml:space="preserve">question_no</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -338,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -361,6 +361,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,12 +377,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -409,8 +423,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -433,19 +447,12 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="55.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,522 +482,522 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>923289579</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="0" t="n">
+        <v>1557053946</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="0" t="n">
+        <v>1499553323</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="0" t="n">
+        <v>1540177488</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="0" t="n">
+        <v>1229422529</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="0" t="n">
+        <v>2053106490</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="0" t="n">
+        <v>1871751616</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="0" t="n">
+        <v>976397077</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="0" t="n">
+        <v>1518096388</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="0" t="n">
+        <v>65973273</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="0" t="n">
+        <v>1484841521</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="0" t="n">
+        <v>495963771</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="0" t="n">
+        <v>1629107234</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="0" t="n">
+        <v>1959060925</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="0" t="n">
+        <v>705579506</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="0" t="n">
+        <v>1021068888</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="0" t="n">
+        <v>152519529</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="0" t="n">
+        <v>1360832799</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="0" t="n">
+        <v>43868109</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="0" t="n">
+        <v>1822600104</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
